--- a/data/trans_orig/P55S_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1798</v>
+        <v>1762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9592</v>
+        <v>9560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1374059157982372</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05307078254784616</v>
+        <v>0.05201221713054865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2831492513917476</v>
+        <v>0.2822194389547229</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>9200</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4335</v>
+        <v>4922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16215</v>
+        <v>16193</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2054316469241227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09679682740916001</v>
+        <v>0.1099046213073688</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.362047741164365</v>
+        <v>0.3615632884045069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>13855</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7997</v>
+        <v>8070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21952</v>
+        <v>22213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1761368901365067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1016685057013803</v>
+        <v>0.10259395231567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2790769392148724</v>
+        <v>0.2823947480979098</v>
       </c>
     </row>
     <row r="5">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5300</v>
+        <v>5365</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02379483894317344</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1183375796193815</v>
+        <v>0.1197911723921895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5472</v>
+        <v>5424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01354777495571254</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06955956405353073</v>
+        <v>0.06895309807093082</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>28275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23100</v>
+        <v>23515</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31937</v>
+        <v>31990</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.834691820391101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6819054589485253</v>
+        <v>0.6941586606465994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9427913151565708</v>
+        <v>0.944355523726345</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -899,19 +899,19 @@
         <v>32690</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25620</v>
+        <v>25311</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37921</v>
+        <v>37352</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7299077357175233</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5720527551949178</v>
+        <v>0.5651635282827061</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8467228120714225</v>
+        <v>0.8340006011886999</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -920,19 +920,19 @@
         <v>60965</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52060</v>
+        <v>53297</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67016</v>
+        <v>67924</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7750321941381892</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6618216875922567</v>
+        <v>0.6775536736079256</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8519548330622371</v>
+        <v>0.8634975042943004</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4992</v>
+        <v>4308</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02790226381066183</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1473621808255902</v>
+        <v>0.1271609806058402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5674</v>
+        <v>5683</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04086577841518057</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1267010169191481</v>
+        <v>0.1268821905301606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -991,19 +991,19 @@
         <v>2775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7213</v>
+        <v>7189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03528314076959155</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01100290633426266</v>
+        <v>0.01114703615614052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09169619050682894</v>
+        <v>0.09139422523362664</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>3897</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9405</v>
+        <v>8807</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0811536516554445</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02010408520116508</v>
+        <v>0.02005883126593307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1958528389914117</v>
+        <v>0.1833899297505958</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1116,19 +1116,19 @@
         <v>9982</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4602</v>
+        <v>5361</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16843</v>
+        <v>17346</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.147493263777513</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06799463205874505</v>
+        <v>0.07920369498740061</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2488663923263381</v>
+        <v>0.2562975801453408</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -1137,19 +1137,19 @@
         <v>13880</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8113</v>
+        <v>7635</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22264</v>
+        <v>21864</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1199590892486511</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07011589777734697</v>
+        <v>0.06598672352299706</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1924261862840016</v>
+        <v>0.1889719207226404</v>
       </c>
     </row>
     <row r="10">
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5488</v>
+        <v>5108</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01599678805027496</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08109120015871434</v>
+        <v>0.07547083526120871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5691</v>
+        <v>6278</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009357340818249914</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0491887553514174</v>
+        <v>0.05426242296583397</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>42140</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36293</v>
+        <v>37126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>46009</v>
+        <v>45983</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8775206718958788</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7557650486369341</v>
+        <v>0.7730967077662064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9580894884688664</v>
+        <v>0.9575359304636657</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -1250,19 +1250,19 @@
         <v>50061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42286</v>
+        <v>41521</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57070</v>
+        <v>57212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.739673261952681</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6247997059871782</v>
+        <v>0.6134867088887069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8432387555878378</v>
+        <v>0.8453343395405336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>88</v>
@@ -1271,19 +1271,19 @@
         <v>92201</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82740</v>
+        <v>81768</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>100275</v>
+        <v>99761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7968866601369156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7151112870740028</v>
+        <v>0.7067082744094787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8666678260203514</v>
+        <v>0.8622248527762626</v>
       </c>
     </row>
     <row r="12">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6137</v>
+        <v>6008</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04132567644867673</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1277870823276625</v>
+        <v>0.1251160971426394</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1321,19 +1321,19 @@
         <v>6554</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2276</v>
+        <v>2781</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12121</v>
+        <v>13898</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09683668621953101</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03362208136561081</v>
+        <v>0.04109467542858887</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1790993307209445</v>
+        <v>0.2053504359007157</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1342,19 +1342,19 @@
         <v>8538</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3409</v>
+        <v>4101</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15428</v>
+        <v>16110</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07379690979618339</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02946393631822777</v>
+        <v>0.03544486791894515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1333397264833644</v>
+        <v>0.1392334261988901</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>12474</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7064</v>
+        <v>7294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19532</v>
+        <v>20097</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2684732679914211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1520260676937178</v>
+        <v>0.1569735930891009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4203719711465306</v>
+        <v>0.4325192254565408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1480,19 +1480,19 @@
         <v>12474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6944</v>
+        <v>7030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20533</v>
+        <v>20622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1833393423701529</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1020523012155133</v>
+        <v>0.1033252380841748</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3017754098109654</v>
+        <v>0.3030914702810231</v>
       </c>
     </row>
     <row r="15">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5352</v>
+        <v>6382</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02280026604039671</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.115176823682299</v>
+        <v>0.1373587714861611</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5174</v>
+        <v>4856</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0155702123082304</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07604748902978273</v>
+        <v>0.07136453130587223</v>
       </c>
     </row>
     <row r="16">
@@ -1572,7 +1572,7 @@
         <v>18910</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13693</v>
+        <v>13371</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>21576</v>
@@ -1581,7 +1581,7 @@
         <v>0.8764251644018572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6346557438861307</v>
+        <v>0.6196979261522153</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1593,19 +1593,19 @@
         <v>29090</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21882</v>
+        <v>21912</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34808</v>
+        <v>34806</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6260735236292128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4709425106363773</v>
+        <v>0.4715918757583544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.749141698195625</v>
+        <v>0.7490987096682692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1614,19 +1614,19 @@
         <v>48000</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39084</v>
+        <v>38956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54522</v>
+        <v>55261</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7054610102276246</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5744237134478434</v>
+        <v>0.5725456911815037</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8013233144558894</v>
+        <v>0.8121818194570836</v>
       </c>
     </row>
     <row r="17">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7883</v>
+        <v>8205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1235748355981427</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.365344256113869</v>
+        <v>0.380302073847782</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1664,19 +1664,19 @@
         <v>3840</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1054</v>
+        <v>964</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8962</v>
+        <v>8411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08265294233896942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02268286461561306</v>
+        <v>0.02075647764729579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1928854555424006</v>
+        <v>0.1810254021336047</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1685,19 +1685,19 @@
         <v>6507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2816</v>
+        <v>2550</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13902</v>
+        <v>14122</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09562943509399208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04138649166833155</v>
+        <v>0.03747324219461055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2043242261853973</v>
+        <v>0.2075529600797064</v>
       </c>
     </row>
     <row r="18">
@@ -1789,19 +1789,19 @@
         <v>6458</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3166</v>
+        <v>2623</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11220</v>
+        <v>11276</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2794945729118356</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1370286543004242</v>
+        <v>0.1135154572957022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4855751646207148</v>
+        <v>0.488012732731567</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1810,19 +1810,19 @@
         <v>16561</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10086</v>
+        <v>9887</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25178</v>
+        <v>24757</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2300441139610784</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1401005360738427</v>
+        <v>0.1373348587654342</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3497267386878705</v>
+        <v>0.3438888729394748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1831,19 +1831,19 @@
         <v>23019</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15283</v>
+        <v>15743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31898</v>
+        <v>32135</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2420590552506049</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1607068949214386</v>
+        <v>0.165547768890902</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3354198347429495</v>
+        <v>0.3379134493396101</v>
       </c>
     </row>
     <row r="20">
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4312</v>
+        <v>4020</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03616690011134361</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1866103056485594</v>
+        <v>0.1739748851986093</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1881,19 +1881,19 @@
         <v>7555</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3228</v>
+        <v>3284</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14194</v>
+        <v>14608</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1049436838460177</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04483695359259021</v>
+        <v>0.04561517979856625</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1971641222818422</v>
+        <v>0.2029072294856474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1902,19 +1902,19 @@
         <v>8391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3870</v>
+        <v>3956</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15398</v>
+        <v>15696</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08823303977540457</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0406901302060098</v>
+        <v>0.04159737899840916</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1619176751976245</v>
+        <v>0.1650485168228487</v>
       </c>
     </row>
     <row r="21">
@@ -1931,19 +1931,19 @@
         <v>14974</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10619</v>
+        <v>10303</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18807</v>
+        <v>18858</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6480530422315669</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4595902568926821</v>
+        <v>0.4458829431994738</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8139533027326501</v>
+        <v>0.8161449836274809</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -1952,19 +1952,19 @@
         <v>44888</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36172</v>
+        <v>35247</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52690</v>
+        <v>53095</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6235108863621185</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5024441271108628</v>
+        <v>0.4895947213975179</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.731888314381369</v>
+        <v>0.7375088134976548</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -1973,19 +1973,19 @@
         <v>59862</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>50228</v>
+        <v>49954</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69018</v>
+        <v>69158</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6294738757487988</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5281734649973938</v>
+        <v>0.525294447885627</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7257535471922814</v>
+        <v>0.727224319501553</v>
       </c>
     </row>
     <row r="22">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3804</v>
+        <v>4174</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03628548474525389</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1646457292478336</v>
+        <v>0.1806307965050507</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2023,19 +2023,19 @@
         <v>2988</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04150131583078534</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01275122056678714</v>
+        <v>0.01283338202632588</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1101872063025142</v>
+        <v>0.1102074161201214</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2044,19 +2044,19 @@
         <v>3826</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9075</v>
+        <v>9405</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0402340292251918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01004846322812159</v>
+        <v>0.01001833760204815</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09543106547082471</v>
+        <v>0.09890291005743541</v>
       </c>
     </row>
     <row r="23">
@@ -2148,19 +2148,19 @@
         <v>15010</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1185802803852534</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>45</v>
@@ -2169,19 +2169,19 @@
         <v>48218</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36914</v>
+        <v>36422</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63679</v>
+        <v>61772</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2088085470507513</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1598563786335921</v>
+        <v>0.1577228088778697</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2757598114391963</v>
+        <v>0.2675023860821519</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -2190,19 +2190,19 @@
         <v>63228</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>49949</v>
+        <v>50924</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>79290</v>
+        <v>78033</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.176861917608825</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.139717807864013</v>
+        <v>0.142445197230937</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2217901046181327</v>
+        <v>0.2182727943562024</v>
       </c>
     </row>
     <row r="25">
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006601954204140626</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2240,19 +2240,19 @@
         <v>10763</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5330</v>
+        <v>5440</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18918</v>
+        <v>19190</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04660796929103392</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02308064388712291</v>
+        <v>0.02355958252150759</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08192300894079724</v>
+        <v>0.08310123515786429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2261,19 +2261,19 @@
         <v>11598</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6350</v>
+        <v>5299</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20286</v>
+        <v>19388</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03244325809063792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01776248834287934</v>
+        <v>0.01482331737080797</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05674487036924866</v>
+        <v>0.05423232965068588</v>
       </c>
     </row>
     <row r="26">
@@ -2290,19 +2290,19 @@
         <v>104298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94745</v>
+        <v>95517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111981</v>
+        <v>112116</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8239848027991133</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7485122786821964</v>
+        <v>0.7546099108305555</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8846786918138952</v>
+        <v>0.8857489583751416</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>145</v>
@@ -2311,19 +2311,19 @@
         <v>156728</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>141750</v>
+        <v>143405</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>170646</v>
+        <v>171563</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.678707217715202</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6138456184415008</v>
+        <v>0.6210085959529396</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7389759762282542</v>
+        <v>0.7429484714321775</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>255</v>
@@ -2332,19 +2332,19 @@
         <v>261028</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>243453</v>
+        <v>243818</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>275794</v>
+        <v>276047</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7301448585833309</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6809862609422086</v>
+        <v>0.6820071462578373</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7714487303605652</v>
+        <v>0.7721585582126316</v>
       </c>
     </row>
     <row r="27">
@@ -2361,19 +2361,19 @@
         <v>6434</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05083296261149261</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -2382,19 +2382,19 @@
         <v>15212</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06587626594301266</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>21</v>
@@ -2403,19 +2403,19 @@
         <v>21647</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06054996571720619</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
     </row>
     <row r="28">
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6002</v>
+        <v>6231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05661577732841566</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1844745148187547</v>
+        <v>0.1915046829441365</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2768,19 +2768,19 @@
         <v>5176</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2039</v>
+        <v>1993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11490</v>
+        <v>10525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08484753632981587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03342072712560597</v>
+        <v>0.03266805391908956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1883464195033297</v>
+        <v>0.1725276014719057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2789,19 +2789,19 @@
         <v>7018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2879</v>
+        <v>3006</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13324</v>
+        <v>13250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07502721389902618</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03077475543412884</v>
+        <v>0.03213769798043555</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1424469638580871</v>
+        <v>0.1416560456613977</v>
       </c>
     </row>
     <row r="5">
@@ -2818,19 +2818,19 @@
         <v>5208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10698</v>
+        <v>10992</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1600651336188012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06175983834737483</v>
+        <v>0.06180698988867365</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3287806105530188</v>
+        <v>0.3378158136605899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -2839,19 +2839,19 @@
         <v>15286</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8972</v>
+        <v>8663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22967</v>
+        <v>22596</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2505772466500132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1470715471625763</v>
+        <v>0.1420058308901505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3765007510696385</v>
+        <v>0.3704101820662266</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -2860,19 +2860,19 @@
         <v>20494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12920</v>
+        <v>13221</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29969</v>
+        <v>29335</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2190929125065226</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1381266277566149</v>
+        <v>0.1413471214501726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3203859379880307</v>
+        <v>0.3136103374836662</v>
       </c>
     </row>
     <row r="6">
@@ -2889,19 +2889,19 @@
         <v>25487</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19889</v>
+        <v>19530</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29511</v>
+        <v>29501</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7833190890527831</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6112617011471932</v>
+        <v>0.6002377678217169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9070001289637031</v>
+        <v>0.9066953994426014</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -2910,19 +2910,19 @@
         <v>39380</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30780</v>
+        <v>31434</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46137</v>
+        <v>46719</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6455541439169766</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5045708119077355</v>
+        <v>0.5152945194290017</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7563187894247477</v>
+        <v>0.7658583880377504</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -2931,19 +2931,19 @@
         <v>64867</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54933</v>
+        <v>54701</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73462</v>
+        <v>72533</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.693475216806079</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5872700249346617</v>
+        <v>0.5847951065889214</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7853580361471126</v>
+        <v>0.7754302166235408</v>
       </c>
     </row>
     <row r="7">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6973</v>
+        <v>5905</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01902107310319429</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1143149351098373</v>
+        <v>0.09679557658805291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4749</v>
+        <v>5891</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01240465678837221</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05077090068279468</v>
+        <v>0.06298000484030129</v>
       </c>
     </row>
     <row r="8">
@@ -3098,19 +3098,19 @@
         <v>6486</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2126</v>
+        <v>2669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11695</v>
+        <v>12358</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1420628109583487</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04655593978536286</v>
+        <v>0.05845318899951975</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2561652973807934</v>
+        <v>0.270686320396063</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -3119,19 +3119,19 @@
         <v>10886</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5454</v>
+        <v>5432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18002</v>
+        <v>18166</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1232320146089825</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06173672233465938</v>
+        <v>0.06148940089723348</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2037841177414175</v>
+        <v>0.2056398757334311</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -3140,19 +3140,19 @@
         <v>17372</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10840</v>
+        <v>10642</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27259</v>
+        <v>25938</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.129648170811713</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08089809214829999</v>
+        <v>0.07941813895583029</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2034299008796855</v>
+        <v>0.1935704560546534</v>
       </c>
     </row>
     <row r="10">
@@ -3169,19 +3169,19 @@
         <v>5487</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2049</v>
+        <v>1944</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11487</v>
+        <v>11440</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1201719557574853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0448882175250643</v>
+        <v>0.0425761326250416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2515882046244388</v>
+        <v>0.2505667488421205</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3190,19 +3190,19 @@
         <v>14355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7809</v>
+        <v>8620</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22809</v>
+        <v>21651</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1624958557459481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08839891660649708</v>
+        <v>0.09757229216434402</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2581906742231018</v>
+        <v>0.2450908402233207</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3211,19 +3211,19 @@
         <v>19841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12259</v>
+        <v>12865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29238</v>
+        <v>29688</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1480749704898735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09148634190348938</v>
+        <v>0.09600893176775603</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2182012627885509</v>
+        <v>0.2215593896532061</v>
       </c>
     </row>
     <row r="11">
@@ -3240,19 +3240,19 @@
         <v>31707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24929</v>
+        <v>25043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37559</v>
+        <v>37430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6944804769829986</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5460116035336128</v>
+        <v>0.5485251679680749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.822658315182297</v>
+        <v>0.8198357866540539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -3261,19 +3261,19 @@
         <v>60899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51118</v>
+        <v>52012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69729</v>
+        <v>68479</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6893709231108686</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5786516808479967</v>
+        <v>0.5887694992791294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.789324018697653</v>
+        <v>0.7751710853241659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>82</v>
@@ -3282,19 +3282,19 @@
         <v>92606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>81209</v>
+        <v>80650</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>103440</v>
+        <v>102313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6911118848398162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6060528726323898</v>
+        <v>0.6018819015248802</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7719667375036163</v>
+        <v>0.7635500656333699</v>
       </c>
     </row>
     <row r="12">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6138</v>
+        <v>6584</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04328475630116738</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.134443603749604</v>
+        <v>0.1442171183319693</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6661</v>
+        <v>6655</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02490120653420076</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07539749131275376</v>
+        <v>0.07533638263409259</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -3353,19 +3353,19 @@
         <v>4176</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10765</v>
+        <v>9774</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03116497385859736</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007712114814494755</v>
+        <v>0.007580882195936075</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08034039746271079</v>
+        <v>0.07294500130033515</v>
       </c>
     </row>
     <row r="13">
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7670</v>
+        <v>7896</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08976202805365216</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2745125821748359</v>
+        <v>0.2826076814056251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3478,19 +3478,19 @@
         <v>7553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3185</v>
+        <v>2664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15585</v>
+        <v>14240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1454873779172516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06134603784929887</v>
+        <v>0.05132005332525712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3002032643817915</v>
+        <v>0.2742856069488048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -3499,19 +3499,19 @@
         <v>10061</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5068</v>
+        <v>5074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17677</v>
+        <v>18775</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1259900251971784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06346421586549707</v>
+        <v>0.06354029627462754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2213598301396326</v>
+        <v>0.2351051074397084</v>
       </c>
     </row>
     <row r="15">
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4828</v>
+        <v>5592</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03799909761974928</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.172781313247091</v>
+        <v>0.2001404863895665</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -3549,19 +3549,19 @@
         <v>8576</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4151</v>
+        <v>4103</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14863</v>
+        <v>15273</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1651829879705628</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07994759639346558</v>
+        <v>0.07903442369965043</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2862870155839916</v>
+        <v>0.2941787948694599</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -3570,19 +3570,19 @@
         <v>9637</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4529</v>
+        <v>4495</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17047</v>
+        <v>16328</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1206835065576927</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05671384689221232</v>
+        <v>0.05629118078921942</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2134689076145141</v>
+        <v>0.2044710835257121</v>
       </c>
     </row>
     <row r="16">
@@ -3599,19 +3599,19 @@
         <v>21055</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14495</v>
+        <v>13825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25463</v>
+        <v>25052</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7535644552915551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5187883603227373</v>
+        <v>0.4948002492312923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9113566853293563</v>
+        <v>0.8966214080210063</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3620,19 +3620,19 @@
         <v>34808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27418</v>
+        <v>27718</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41224</v>
+        <v>41023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6704603172584788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5281168366447684</v>
+        <v>0.5339007486995316</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7940467816672432</v>
+        <v>0.7901746755646231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -3641,19 +3641,19 @@
         <v>55862</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46414</v>
+        <v>45745</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63523</v>
+        <v>63683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6995370425853654</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5812174458634334</v>
+        <v>0.5728493470824948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7954672690478466</v>
+        <v>0.7974720546693881</v>
       </c>
     </row>
     <row r="17">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11338</v>
+        <v>10192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1186744190350435</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4058066719241767</v>
+        <v>0.3647799557302716</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5063</v>
+        <v>5044</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0188693168537069</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09753095303602567</v>
+        <v>0.09714774422166024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>4295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12494</v>
+        <v>13287</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05378942565976356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0124861283276781</v>
+        <v>0.0128832176707885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1564560491146629</v>
+        <v>0.1663899227228214</v>
       </c>
     </row>
     <row r="18">
@@ -3816,19 +3816,19 @@
         <v>8205</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3775</v>
+        <v>3931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14298</v>
+        <v>14329</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2049468006636194</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09430511821002112</v>
+        <v>0.09818457863788344</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3571429869589732</v>
+        <v>0.3579109197926889</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -3837,19 +3837,19 @@
         <v>19366</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10909</v>
+        <v>12321</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28260</v>
+        <v>29118</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.247413123545798</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.139365076204674</v>
+        <v>0.1574157122920691</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3610440883990554</v>
+        <v>0.3720102017647277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -3858,19 +3858,19 @@
         <v>27571</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18520</v>
+        <v>18961</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37514</v>
+        <v>37517</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2330428162303297</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1565381919585676</v>
+        <v>0.1602689800766022</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3170944599108581</v>
+        <v>0.3171126171716307</v>
       </c>
     </row>
     <row r="20">
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5583</v>
+        <v>4867</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0271550646920691</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1394657674473517</v>
+        <v>0.1215615115372131</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -3908,19 +3908,19 @@
         <v>14578</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8496</v>
+        <v>8272</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22721</v>
+        <v>22475</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1862483596371312</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1085476223041642</v>
+        <v>0.1056866664695007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2902842207720643</v>
+        <v>0.2871326354135124</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -3929,19 +3929,19 @@
         <v>15665</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9644</v>
+        <v>8992</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24138</v>
+        <v>23241</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1324122988476433</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08151845807734305</v>
+        <v>0.07600323197541121</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2040312760832733</v>
+        <v>0.1964439022184986</v>
       </c>
     </row>
     <row r="21">
@@ -3958,19 +3958,19 @@
         <v>29742</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23592</v>
+        <v>23167</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34753</v>
+        <v>34615</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7429265476875075</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5892943275344993</v>
+        <v>0.5786874655710746</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8680777886135124</v>
+        <v>0.8646480813183738</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -3979,19 +3979,19 @@
         <v>42307</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33860</v>
+        <v>32909</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52248</v>
+        <v>52097</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5405096214599578</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4325871195960797</v>
+        <v>0.4204368032747788</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6675130362981883</v>
+        <v>0.6655825719248214</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>67</v>
@@ -4000,19 +4000,19 @@
         <v>72050</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60446</v>
+        <v>60545</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>82451</v>
+        <v>82985</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6090060967449201</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5109215725964773</v>
+        <v>0.5117642693068003</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6969277602089676</v>
+        <v>0.701437051117568</v>
       </c>
     </row>
     <row r="22">
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4580</v>
+        <v>5302</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02497158695680398</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1144001023409927</v>
+        <v>0.1324268160376596</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6867</v>
+        <v>6591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0258288953571129</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08773447474194328</v>
+        <v>0.08420848951163014</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -4071,19 +4071,19 @@
         <v>3021</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>929</v>
+        <v>955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8150</v>
+        <v>9175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02553878817710694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007852661222872178</v>
+        <v>0.008068594268794175</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06888558700634588</v>
+        <v>0.07754898103576353</v>
       </c>
     </row>
     <row r="23">
@@ -4175,19 +4175,19 @@
         <v>19041</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11636</v>
+        <v>11923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28717</v>
+        <v>29821</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1302681146703799</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07960580227825394</v>
+        <v>0.08156842930421079</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1964637256696914</v>
+        <v>0.2040195781835142</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -4196,19 +4196,19 @@
         <v>42981</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30607</v>
+        <v>30850</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>58306</v>
+        <v>55298</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1537613461252115</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1094931398420656</v>
+        <v>0.1103621389411912</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2085856856036618</v>
+        <v>0.1978250819348606</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -4217,19 +4217,19 @@
         <v>62022</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47391</v>
+        <v>46865</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>78773</v>
+        <v>77622</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1456947041609223</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1113255794874831</v>
+        <v>0.1100897838692191</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1850432910605568</v>
+        <v>0.1823401094597826</v>
       </c>
     </row>
     <row r="25">
@@ -4246,19 +4246,19 @@
         <v>12843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7215</v>
+        <v>7324</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21744</v>
+        <v>21118</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0878680605166821</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04936384719114745</v>
+        <v>0.05010644676677192</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.148761865474298</v>
+        <v>0.1444776600768732</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -4267,19 +4267,19 @@
         <v>52794</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41490</v>
+        <v>40564</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67922</v>
+        <v>67903</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1888679467997338</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1484288774840873</v>
+        <v>0.1451140758571703</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.242984893356198</v>
+        <v>0.2429178778633886</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -4288,19 +4288,19 @@
         <v>65638</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51025</v>
+        <v>52022</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81717</v>
+        <v>81677</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1541885999995408</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1198611443916147</v>
+        <v>0.1222047987103007</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.19195949168977</v>
+        <v>0.19186677908096</v>
       </c>
     </row>
     <row r="26">
@@ -4317,19 +4317,19 @@
         <v>107992</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96382</v>
+        <v>94950</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118824</v>
+        <v>117915</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7388192035239088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6593940802760302</v>
+        <v>0.6495920634905427</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8129281302701264</v>
+        <v>0.8067083965473405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>164</v>
@@ -4338,19 +4338,19 @@
         <v>177393</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>159585</v>
+        <v>161679</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>194142</v>
+        <v>194899</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.634613232097473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5709063864739639</v>
+        <v>0.5783970963712667</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6945315822375143</v>
+        <v>0.697237628759714</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>258</v>
@@ -4359,19 +4359,19 @@
         <v>285385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>266694</v>
+        <v>264053</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>304904</v>
+        <v>302962</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6703934211129411</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6264863930075615</v>
+        <v>0.6202832567841648</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7162438735309522</v>
+        <v>0.7116835666580251</v>
       </c>
     </row>
     <row r="27">
@@ -4388,19 +4388,19 @@
         <v>6292</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04304462128902921</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -4409,19 +4409,19 @@
         <v>6361</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2944</v>
+        <v>2280</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12969</v>
+        <v>13169</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02275747497758158</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01053305947733116</v>
+        <v>0.008157417747656203</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04639682697974521</v>
+        <v>0.04711162068453293</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -4430,19 +4430,19 @@
         <v>12653</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>22649</v>
+        <v>23012</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02972327472659582</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01508180253577991</v>
+        <v>0.01522285783921976</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05320471741105751</v>
+        <v>0.05405815566549491</v>
       </c>
     </row>
     <row r="28">
@@ -4774,19 +4774,19 @@
         <v>2813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7266</v>
+        <v>6679</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1012573407112287</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03065759915598898</v>
+        <v>0.02994029700432356</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2615673082072256</v>
+        <v>0.2404518975498433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4795,19 +4795,19 @@
         <v>9975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4718</v>
+        <v>4485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18082</v>
+        <v>17362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1658759060529323</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07846024441587446</v>
+        <v>0.07458229173421092</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3006756510961681</v>
+        <v>0.2887004889000502</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4816,19 +4816,19 @@
         <v>12788</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6802</v>
+        <v>7079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21773</v>
+        <v>21401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1454590864984042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07736959923857814</v>
+        <v>0.0805228282432446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2476521986712752</v>
+        <v>0.2434202389483448</v>
       </c>
     </row>
     <row r="5">
@@ -4845,19 +4845,19 @@
         <v>5002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1655</v>
+        <v>2381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9171</v>
+        <v>9442</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1800648950540661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05956599521351573</v>
+        <v>0.08570759015097187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3301643633458531</v>
+        <v>0.3399008373409378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -4866,19 +4866,19 @@
         <v>7054</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2341</v>
+        <v>2473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13312</v>
+        <v>13958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1172914843481965</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03891908156616045</v>
+        <v>0.04111636782578504</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2213607440958243</v>
+        <v>0.2320962920771939</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -4887,19 +4887,19 @@
         <v>12056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6533</v>
+        <v>6640</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19356</v>
+        <v>19728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1371253106243872</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0743090472279494</v>
+        <v>0.07552515000602311</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2201605249996239</v>
+        <v>0.2243929281640015</v>
       </c>
     </row>
     <row r="6">
@@ -4916,19 +4916,19 @@
         <v>19170</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13930</v>
+        <v>14658</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23440</v>
+        <v>23313</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6901089287471115</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5014697144095362</v>
+        <v>0.5276787733404472</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8438267348637555</v>
+        <v>0.8392472665015226</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -4937,19 +4937,19 @@
         <v>38982</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30320</v>
+        <v>30382</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46025</v>
+        <v>46858</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6482024096851964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5041699347159188</v>
+        <v>0.5052027793925558</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7653275087806083</v>
+        <v>0.7791752739742778</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -4958,19 +4958,19 @@
         <v>58151</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47666</v>
+        <v>48267</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>66156</v>
+        <v>66734</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6614431530121505</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5421741223502505</v>
+        <v>0.5490113545800611</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7524859711381284</v>
+        <v>0.7590698142117618</v>
       </c>
     </row>
     <row r="7">
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3291</v>
+        <v>4023</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02856883548759373</v>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1184822666189652</v>
+        <v>0.1448245667774528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5008,19 +5008,19 @@
         <v>4127</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10061</v>
+        <v>9663</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06863019991367479</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01852968033180985</v>
+        <v>0.01877026099405729</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1672941956108429</v>
+        <v>0.1606780140916649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -5029,19 +5029,19 @@
         <v>4921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10666</v>
+        <v>10654</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05597244986505811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02034363658123346</v>
+        <v>0.02044967406592743</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1213255072632966</v>
+        <v>0.1211866674584129</v>
       </c>
     </row>
     <row r="8">
@@ -5133,19 +5133,19 @@
         <v>6853</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3230</v>
+        <v>3337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11668</v>
+        <v>12275</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1675146516941413</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07895518715433011</v>
+        <v>0.08157166546527432</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2852279745061242</v>
+        <v>0.3000577020931199</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -5154,19 +5154,19 @@
         <v>5663</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2127</v>
+        <v>2066</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12247</v>
+        <v>11938</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07369380844693314</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02767635624665224</v>
+        <v>0.02688053706059291</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.159376942060298</v>
+        <v>0.1553544765066878</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -5175,19 +5175,19 @@
         <v>12516</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6333</v>
+        <v>6788</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20707</v>
+        <v>20209</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1062885478973955</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05378256046275814</v>
+        <v>0.05764659363539974</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1758538253878795</v>
+        <v>0.1716178961016128</v>
       </c>
     </row>
     <row r="10">
@@ -5217,19 +5217,19 @@
         <v>5148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1331</v>
+        <v>1299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11839</v>
+        <v>12771</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06699237133404332</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01731860908613065</v>
+        <v>0.01690690347935477</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1540694432158604</v>
+        <v>0.1661944476674359</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5238,19 +5238,19 @@
         <v>5148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1290</v>
+        <v>1317</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11804</v>
+        <v>11905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04371823721601788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01095505573891354</v>
+        <v>0.01118347680563639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.100243771293326</v>
+        <v>0.1010976745597152</v>
       </c>
     </row>
     <row r="11">
@@ -5267,19 +5267,19 @@
         <v>34056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29241</v>
+        <v>28634</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37679</v>
+        <v>37572</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8324853483058586</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7147720254938756</v>
+        <v>0.6999422979068803</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9210448128456699</v>
+        <v>0.9184283345347258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -5288,19 +5288,19 @@
         <v>57542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47808</v>
+        <v>48503</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65280</v>
+        <v>64943</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7488192087867267</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6221399637099697</v>
+        <v>0.631193229070373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8495089428139787</v>
+        <v>0.8451338720649504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>83</v>
@@ -5309,19 +5309,19 @@
         <v>91598</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80858</v>
+        <v>80733</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>100099</v>
+        <v>99710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7778860549593472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.686675792301575</v>
+        <v>0.685615300183517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.850075729160324</v>
+        <v>0.8467688418424681</v>
       </c>
     </row>
     <row r="12">
@@ -5351,19 +5351,19 @@
         <v>8491</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3572</v>
+        <v>3713</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15408</v>
+        <v>15765</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1104946114322969</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04648213847340899</v>
+        <v>0.04831853016113026</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2005051680268903</v>
+        <v>0.2051546403683228</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -5372,19 +5372,19 @@
         <v>8491</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3609</v>
+        <v>3846</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16995</v>
+        <v>16408</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0721071599272395</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0306477410488719</v>
+        <v>0.03265841714375923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1443292784659205</v>
+        <v>0.1393427738484194</v>
       </c>
     </row>
     <row r="13">
@@ -5476,19 +5476,19 @@
         <v>2620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6259</v>
+        <v>6367</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1126100693384926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03593565978195752</v>
+        <v>0.0366148667845342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2690413914573325</v>
+        <v>0.2736854264557958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -5497,19 +5497,19 @@
         <v>10687</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5246</v>
+        <v>5194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17714</v>
+        <v>17949</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2072364795210235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1017330037898806</v>
+        <v>0.1007144061425543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3435021136933486</v>
+        <v>0.3480581571771483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -5518,19 +5518,19 @@
         <v>13307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7554</v>
+        <v>7785</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22239</v>
+        <v>21624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1778201547258842</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1009510344369984</v>
+        <v>0.1040365058728046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2971812309261379</v>
+        <v>0.288959880747547</v>
       </c>
     </row>
     <row r="15">
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4209</v>
+        <v>3995</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03479036562316586</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1809514401282055</v>
+        <v>0.1717163582513903</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -5568,19 +5568,19 @@
         <v>5354</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1346</v>
+        <v>1284</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12346</v>
+        <v>12500</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1038170735884353</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0261084374978123</v>
+        <v>0.02488970201740474</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.239411054208528</v>
+        <v>0.2423905665036454</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -5589,19 +5589,19 @@
         <v>6163</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1897</v>
+        <v>2072</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13391</v>
+        <v>13965</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0823588775401142</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02535014405642577</v>
+        <v>0.02768163983661184</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1789422105627986</v>
+        <v>0.1866100883543875</v>
       </c>
     </row>
     <row r="16">
@@ -5618,19 +5618,19 @@
         <v>19834</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15756</v>
+        <v>15584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22394</v>
+        <v>22388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8525995650383414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6772931538827028</v>
+        <v>0.6699053044876458</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9626657847256387</v>
+        <v>0.9624038894603969</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -5639,19 +5639,19 @@
         <v>33462</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26074</v>
+        <v>25830</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40472</v>
+        <v>40217</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6488651905960224</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5055972827748272</v>
+        <v>0.5008798378680988</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7847968284393595</v>
+        <v>0.7798586509033992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -5660,19 +5660,19 @@
         <v>53296</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43946</v>
+        <v>44688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60788</v>
+        <v>60846</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.712199692232186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5872594415422524</v>
+        <v>0.5971688201900307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8123193461829964</v>
+        <v>0.8130860120266941</v>
       </c>
     </row>
     <row r="17">
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7346</v>
+        <v>7488</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04008125629451877</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1424382271267025</v>
+        <v>0.1451910152423804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7213</v>
+        <v>7578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02762127550181559</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09639249668004668</v>
+        <v>0.1012717795731489</v>
       </c>
     </row>
     <row r="18">
@@ -5827,19 +5827,19 @@
         <v>5336</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2319</v>
+        <v>2271</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10071</v>
+        <v>10218</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1808281734034939</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07858433306262012</v>
+        <v>0.0769706755286247</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3412808080240391</v>
+        <v>0.3462837606596064</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -5848,19 +5848,19 @@
         <v>16145</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9475</v>
+        <v>9449</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25271</v>
+        <v>25891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2048532554572785</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1202288470444048</v>
+        <v>0.1198992438792394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3206495456915157</v>
+        <v>0.3285257401749124</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -5869,19 +5869,19 @@
         <v>21481</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12988</v>
+        <v>13343</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31695</v>
+        <v>32536</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.19830834183462</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1199083675302713</v>
+        <v>0.1231811301561416</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.292612535340391</v>
+        <v>0.300368054658003</v>
       </c>
     </row>
     <row r="20">
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4128</v>
+        <v>4199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02682224320766012</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1399037069977966</v>
+        <v>0.1422884630663155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -5919,19 +5919,19 @@
         <v>3809</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9742</v>
+        <v>10836</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04832706133918811</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01540563403077356</v>
+        <v>0.01536688405412777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1236151052132629</v>
+        <v>0.1374928745779632</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5940,19 +5940,19 @@
         <v>4600</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1256</v>
+        <v>1276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11831</v>
+        <v>11478</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04246871809495937</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01159372282631991</v>
+        <v>0.01177756377978774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.109221993584278</v>
+        <v>0.1059650333612316</v>
       </c>
     </row>
     <row r="21">
@@ -5969,19 +5969,19 @@
         <v>22321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16732</v>
+        <v>16756</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26077</v>
+        <v>26254</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7564512012630733</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5670194288687604</v>
+        <v>0.5678386036682089</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.883736008076522</v>
+        <v>0.8897241248891136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -5990,19 +5990,19 @@
         <v>51384</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40998</v>
+        <v>40579</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>59995</v>
+        <v>60873</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6519918636327262</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5202043243606183</v>
+        <v>0.5148844157456908</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7612523463973716</v>
+        <v>0.7723921138595843</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -6011,19 +6011,19 @@
         <v>73706</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62719</v>
+        <v>62204</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>84671</v>
+        <v>83880</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6804486797360052</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5790172454748774</v>
+        <v>0.5742654244961377</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7816839996669253</v>
+        <v>0.7743832590569371</v>
       </c>
     </row>
     <row r="22">
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4704</v>
+        <v>6150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03589838212577264</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1594213705203262</v>
+        <v>0.2084324747595389</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6061,19 +6061,19 @@
         <v>7473</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3185</v>
+        <v>3170</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15653</v>
+        <v>15180</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09482781957080724</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04041114764684215</v>
+        <v>0.04022726601243032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1986106514890255</v>
+        <v>0.1926099415213291</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -6082,19 +6082,19 @@
         <v>8533</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4142</v>
+        <v>3396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16462</v>
+        <v>17155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07877426033441536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03823664260518862</v>
+        <v>0.03135025506907382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1519733808552783</v>
+        <v>0.1583725555511833</v>
       </c>
     </row>
     <row r="23">
@@ -6186,19 +6186,19 @@
         <v>17621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1450799672884868</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -6207,19 +6207,19 @@
         <v>42470</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1588485796188314</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -6228,19 +6228,19 @@
         <v>60091</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1545475925262416</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
     </row>
     <row r="25">
@@ -6257,19 +6257,19 @@
         <v>6603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3220</v>
+        <v>3198</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12386</v>
+        <v>12658</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05436115516527579</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02651446948443541</v>
+        <v>0.02633384366399056</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1019802284320771</v>
+        <v>0.1042148095780319</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -6278,19 +6278,19 @@
         <v>21364</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12588</v>
+        <v>13187</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31938</v>
+        <v>33079</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07990708262964706</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04708220114725186</v>
+        <v>0.04932116937475595</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1194566087518736</v>
+        <v>0.1237214389409692</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -6299,19 +6299,19 @@
         <v>27967</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18215</v>
+        <v>18132</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40778</v>
+        <v>40914</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07192714233818075</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0468456877928083</v>
+        <v>0.04663385445268416</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1048769040557538</v>
+        <v>0.1052250508586647</v>
       </c>
     </row>
     <row r="26">
@@ -6328,19 +6328,19 @@
         <v>95381</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86858</v>
+        <v>86182</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102508</v>
+        <v>102965</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7853036358561492</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7151310730211816</v>
+        <v>0.70955935838272</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8439817150646605</v>
+        <v>0.8477445928385264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>145</v>
@@ -6349,19 +6349,19 @@
         <v>181370</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>163874</v>
+        <v>163000</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>196610</v>
+        <v>197302</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6783660226317373</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6129278855133725</v>
+        <v>0.6096574351411415</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7353673044149124</v>
+        <v>0.7379552010268792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>251</v>
@@ -6370,19 +6370,19 @@
         <v>276751</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>258365</v>
+        <v>256240</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>296183</v>
+        <v>293586</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7117707901678894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6644818684314048</v>
+        <v>0.6590190839937295</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7617455240037146</v>
+        <v>0.7550668184663638</v>
       </c>
     </row>
     <row r="27">
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0152552416900882</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>19</v>
@@ -6420,19 +6420,19 @@
         <v>22159</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08287831511978425</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>21</v>
@@ -6441,19 +6441,19 @@
         <v>24011</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06175447496768832</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
     </row>
     <row r="28">
@@ -6785,19 +6785,19 @@
         <v>7942</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4835</v>
+        <v>4524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12870</v>
+        <v>12810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1498564174546792</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09123125332793615</v>
+        <v>0.08536572356946123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2428427968180329</v>
+        <v>0.2417101130517913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -6806,19 +6806,19 @@
         <v>10785</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7242</v>
+        <v>7085</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15655</v>
+        <v>15292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1270660498302605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08532451671240365</v>
+        <v>0.08347338408340477</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1844443383775856</v>
+        <v>0.1801774251169125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -6827,19 +6827,19 @@
         <v>18727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13817</v>
+        <v>12800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24966</v>
+        <v>24391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1358264768858871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1002182181171997</v>
+        <v>0.09283920334401871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1810840913585667</v>
+        <v>0.17691447646072</v>
       </c>
     </row>
     <row r="5">
@@ -6856,19 +6856,19 @@
         <v>15586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10803</v>
+        <v>10301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20847</v>
+        <v>21203</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2940983553703784</v>
+        <v>0.2940983553703785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2038437125326523</v>
+        <v>0.1943668937728203</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3933636115640243</v>
+        <v>0.4000823283678073</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -6877,19 +6877,19 @@
         <v>27791</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22232</v>
+        <v>22681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33701</v>
+        <v>33698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3274353430076214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.261942180791628</v>
+        <v>0.2672341868696423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3970732567120945</v>
+        <v>0.3970365076614965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -6898,19 +6898,19 @@
         <v>43377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36081</v>
+        <v>35987</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51677</v>
+        <v>52406</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3146208832646606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2616982018392463</v>
+        <v>0.2610205753731653</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.374822678784103</v>
+        <v>0.3801098023125603</v>
       </c>
     </row>
     <row r="6">
@@ -6927,19 +6927,19 @@
         <v>26790</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21062</v>
+        <v>20697</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32347</v>
+        <v>32644</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5055110030372656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3974321495882223</v>
+        <v>0.3905428419865892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6103758416540516</v>
+        <v>0.6159698038715815</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>100</v>
@@ -6948,19 +6948,19 @@
         <v>44960</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38365</v>
+        <v>39084</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50970</v>
+        <v>51625</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5297299471004857</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4520210665542564</v>
+        <v>0.4604968437856416</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6005345679323075</v>
+        <v>0.6082578555049697</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>143</v>
@@ -6969,19 +6969,19 @@
         <v>71751</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62757</v>
+        <v>62783</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79424</v>
+        <v>80446</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5204203871878667</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4551835970878003</v>
+        <v>0.4553735218237782</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5760720210018894</v>
+        <v>0.5834909929430456</v>
       </c>
     </row>
     <row r="7">
@@ -6998,19 +6998,19 @@
         <v>2678</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>781</v>
+        <v>734</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5887</v>
+        <v>5926</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05053422413767656</v>
+        <v>0.05053422413767657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01474443113567872</v>
+        <v>0.01385035288556389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1110862288566866</v>
+        <v>0.1118253004537183</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -7019,19 +7019,19 @@
         <v>1338</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4058</v>
+        <v>4028</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01576866006163232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003492889560674701</v>
+        <v>0.003479144236458107</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04781661595350849</v>
+        <v>0.04745667834998531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -7040,19 +7040,19 @@
         <v>4016</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1730</v>
+        <v>1845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7788</v>
+        <v>7862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02913225266158563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01255011455420288</v>
+        <v>0.01338166449210245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05648643400834222</v>
+        <v>0.05702077843282426</v>
       </c>
     </row>
     <row r="8">
@@ -7144,19 +7144,19 @@
         <v>3425</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1182</v>
+        <v>1155</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7871</v>
+        <v>7528</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08184094187416842</v>
+        <v>0.0818409418741684</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02822955893959159</v>
+        <v>0.02759643472883789</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1880659174062378</v>
+        <v>0.1798642484510189</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -7165,19 +7165,19 @@
         <v>10866</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6789</v>
+        <v>6971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16393</v>
+        <v>16434</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1148177545629073</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07174060159319245</v>
+        <v>0.0736572522352588</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1732207671669274</v>
+        <v>0.1736492006063086</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -7186,19 +7186,19 @@
         <v>14291</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9454</v>
+        <v>9719</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20482</v>
+        <v>20490</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1047054806478195</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06926376642929061</v>
+        <v>0.07120388533334199</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1500572418096393</v>
+        <v>0.1501157538360515</v>
       </c>
     </row>
     <row r="10">
@@ -7215,19 +7215,19 @@
         <v>7959</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4805</v>
+        <v>4406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12499</v>
+        <v>12964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1901561152509378</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1147910594531446</v>
+        <v>0.1052773568487129</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2986240224961652</v>
+        <v>0.309743908907323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -7236,19 +7236,19 @@
         <v>25383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19533</v>
+        <v>19671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32330</v>
+        <v>31618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2682176954195453</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.206394647888576</v>
+        <v>0.2078549654912407</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3416217796484054</v>
+        <v>0.3340943848342499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -7257,19 +7257,19 @@
         <v>33342</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26060</v>
+        <v>25770</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41649</v>
+        <v>40527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2442802673739566</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1909243685659765</v>
+        <v>0.1888024850955145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3051389739862148</v>
+        <v>0.296918593023597</v>
       </c>
     </row>
     <row r="11">
@@ -7286,19 +7286,19 @@
         <v>27850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22805</v>
+        <v>22823</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32390</v>
+        <v>32757</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6653965668010728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5448591533412526</v>
+        <v>0.545293264280451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7738641184100541</v>
+        <v>0.7826201330604069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -7307,19 +7307,19 @@
         <v>54999</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47668</v>
+        <v>47577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62138</v>
+        <v>61053</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5811610290916754</v>
+        <v>0.5811610290916753</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5036945672444365</v>
+        <v>0.5027301512924881</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6565923060497115</v>
+        <v>0.6451287089657727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>144</v>
@@ -7328,19 +7328,19 @@
         <v>82850</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73625</v>
+        <v>73767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91171</v>
+        <v>91253</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6069916889174813</v>
+        <v>0.6069916889174815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5394106326305776</v>
+        <v>0.5404484487657525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6679595628582105</v>
+        <v>0.6685589946295161</v>
       </c>
     </row>
     <row r="12">
@@ -7357,19 +7357,19 @@
         <v>2620</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6444</v>
+        <v>6814</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06260637607382093</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01392337406320019</v>
+        <v>0.01409936634474428</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1539607260310738</v>
+        <v>0.1628033995460436</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -7378,19 +7378,19 @@
         <v>3388</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7083</v>
+        <v>7137</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03580352092587198</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01521604976118356</v>
+        <v>0.0153026898389599</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07484505198580514</v>
+        <v>0.07541720867383214</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -7399,19 +7399,19 @@
         <v>6009</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3047</v>
+        <v>3415</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10087</v>
+        <v>10958</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04402256306074258</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02232387841543022</v>
+        <v>0.02502101096997873</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07389913534083668</v>
+        <v>0.08028620310694337</v>
       </c>
     </row>
     <row r="13">
@@ -7503,19 +7503,19 @@
         <v>4146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1339</v>
+        <v>1622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8377</v>
+        <v>8857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1395534375673107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04507762726939902</v>
+        <v>0.05461012752373048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2819837898615006</v>
+        <v>0.2981520441221212</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -7524,19 +7524,19 @@
         <v>9304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5667</v>
+        <v>5708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14229</v>
+        <v>14811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1433595254470905</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08731940937314316</v>
+        <v>0.08794861812846792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2192516475237347</v>
+        <v>0.2282171156548407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -7545,19 +7545,19 @@
         <v>13449</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8838</v>
+        <v>8414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19817</v>
+        <v>20045</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1421643777222904</v>
+        <v>0.1421643777222905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0934251940739201</v>
+        <v>0.08893529399310408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2094699050623475</v>
+        <v>0.2118769093858206</v>
       </c>
     </row>
     <row r="15">
@@ -7574,19 +7574,19 @@
         <v>4512</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9104</v>
+        <v>9197</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1518935129194907</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.052616243341852</v>
+        <v>0.05235829967830657</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3064500180305128</v>
+        <v>0.3095895435298774</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -7595,19 +7595,19 @@
         <v>12503</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8162</v>
+        <v>8163</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18587</v>
+        <v>17759</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1926534969020112</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1257677281493914</v>
+        <v>0.1257866094495569</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2864054117993197</v>
+        <v>0.2736515659867311</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>25</v>
@@ -7616,19 +7616,19 @@
         <v>17015</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>11583</v>
+        <v>11811</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24278</v>
+        <v>23699</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1798544750038586</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1224334219292901</v>
+        <v>0.1248494018570929</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2566294947613296</v>
+        <v>0.2505096580549959</v>
       </c>
     </row>
     <row r="16">
@@ -7645,19 +7645,19 @@
         <v>18541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13776</v>
+        <v>12831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23469</v>
+        <v>23022</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6241285322673092</v>
+        <v>0.6241285322673094</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4637432130834772</v>
+        <v>0.4319179125182951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7900313387955394</v>
+        <v>0.7749736078777359</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -7666,19 +7666,19 @@
         <v>39847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33879</v>
+        <v>33623</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45589</v>
+        <v>45993</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6139932932686971</v>
+        <v>0.613993293268697</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5220328110843071</v>
+        <v>0.518095756457574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7024642257826255</v>
+        <v>0.7086937317691391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -7687,19 +7687,19 @@
         <v>58388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50300</v>
+        <v>50492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66099</v>
+        <v>66373</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6171758545263727</v>
+        <v>0.6171758545263726</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5316872808040098</v>
+        <v>0.5337126436713567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6986868961222652</v>
+        <v>0.7015782955138566</v>
       </c>
     </row>
     <row r="17">
@@ -7716,19 +7716,19 @@
         <v>2508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6129</v>
+        <v>6287</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08442451724588933</v>
+        <v>0.08442451724588934</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02328221285349602</v>
+        <v>0.02280157499203537</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2063169339938425</v>
+        <v>0.211640385550485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -7737,19 +7737,19 @@
         <v>3244</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7455</v>
+        <v>6704</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04999368438220122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01929795649225728</v>
+        <v>0.0189560063780948</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1148732287424394</v>
+        <v>0.1033039215811692</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -7758,19 +7758,19 @@
         <v>5752</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2750</v>
+        <v>2806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10646</v>
+        <v>10807</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06080529274747824</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02907077047758978</v>
+        <v>0.02965868664741694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1125348607269584</v>
+        <v>0.1142334356026525</v>
       </c>
     </row>
     <row r="18">
@@ -7862,19 +7862,19 @@
         <v>6050</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3133</v>
+        <v>2721</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10301</v>
+        <v>10157</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1357729315062219</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07029415324046741</v>
+        <v>0.06105596910842388</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2311645794290433</v>
+        <v>0.2279298786587021</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -7883,19 +7883,19 @@
         <v>20499</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14368</v>
+        <v>14337</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28605</v>
+        <v>28043</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1816735619793388</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1273430738794457</v>
+        <v>0.1270616886610212</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2535170951899615</v>
+        <v>0.2485404621410878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -7904,19 +7904,19 @@
         <v>26549</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18671</v>
+        <v>18828</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34916</v>
+        <v>35141</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1686778365264088</v>
+        <v>0.1686778365264087</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1186260124830962</v>
+        <v>0.1196241511994443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2218375154714807</v>
+        <v>0.2232662776457272</v>
       </c>
     </row>
     <row r="20">
@@ -7933,19 +7933,19 @@
         <v>5025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2412</v>
+        <v>2217</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9089</v>
+        <v>8761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.112753965863989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05412137496615504</v>
+        <v>0.04974092044815288</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2039623692588813</v>
+        <v>0.1966043150585125</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -7954,19 +7954,19 @@
         <v>22523</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16839</v>
+        <v>16337</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29577</v>
+        <v>29165</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1996171954144673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1492426425293637</v>
+        <v>0.1447882341578881</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2621347520659999</v>
+        <v>0.2584775087182213</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -7975,19 +7975,19 @@
         <v>27548</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20957</v>
+        <v>20794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36508</v>
+        <v>35685</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1750238364222852</v>
+        <v>0.1750238364222851</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1331480677928604</v>
+        <v>0.1321113883832055</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2319512500182725</v>
+        <v>0.2267201042924779</v>
       </c>
     </row>
     <row r="21">
@@ -8004,19 +8004,19 @@
         <v>32210</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26842</v>
+        <v>27520</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36513</v>
+        <v>36879</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7227870471805908</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6023368582792821</v>
+        <v>0.6175525552832331</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8193599295309538</v>
+        <v>0.8275808662121177</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>110</v>
@@ -8025,19 +8025,19 @@
         <v>61450</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52732</v>
+        <v>52297</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69184</v>
+        <v>69273</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5446133718834523</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4673479817254207</v>
+        <v>0.4634966630548435</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6131618206192904</v>
+        <v>0.6139514699567423</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>159</v>
@@ -8046,19 +8046,19 @@
         <v>93659</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>82304</v>
+        <v>83441</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>103400</v>
+        <v>104058</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.5950592185577649</v>
+        <v>0.5950592185577646</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5229168462734917</v>
+        <v>0.5301348524329585</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6569434385392132</v>
+        <v>0.6611235591344077</v>
       </c>
     </row>
     <row r="22">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4462</v>
+        <v>4445</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02868605544919817</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1001294226010039</v>
+        <v>0.09974452080923661</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -8096,19 +8096,19 @@
         <v>8360</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4949</v>
+        <v>4730</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13235</v>
+        <v>13160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07409587072274149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04385770445572175</v>
+        <v>0.0419196062580264</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1173018126429101</v>
+        <v>0.1166374375700708</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -8117,19 +8117,19 @@
         <v>9639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5551</v>
+        <v>5978</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14787</v>
+        <v>15379</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0612391084935414</v>
+        <v>0.06123910849354137</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03526514812529495</v>
+        <v>0.03797931485678866</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09394696910028535</v>
+        <v>0.09770857819906743</v>
       </c>
     </row>
     <row r="23">
@@ -8221,19 +8221,19 @@
         <v>21563</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14983</v>
+        <v>15821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28775</v>
+        <v>30304</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1275028017020249</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08859086403309308</v>
+        <v>0.09354572472170133</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1701439127768272</v>
+        <v>0.1791881398021701</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -8242,19 +8242,19 @@
         <v>51453</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41916</v>
+        <v>41691</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62310</v>
+        <v>62659</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1440286304438911</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1173314740693719</v>
+        <v>0.1167036422220915</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1744193295212894</v>
+        <v>0.1753969778019058</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>124</v>
@@ -8263,19 +8263,19 @@
         <v>73016</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61041</v>
+        <v>59776</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86075</v>
+        <v>86439</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.13871885921596</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1159673362710826</v>
+        <v>0.1135649712289881</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1635287314724315</v>
+        <v>0.1642187493004936</v>
       </c>
     </row>
     <row r="25">
@@ -8292,19 +8292,19 @@
         <v>33082</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24872</v>
+        <v>24500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42225</v>
+        <v>41809</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1956116509665345</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1470675045997717</v>
+        <v>0.1448653172078644</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2496744169218368</v>
+        <v>0.2472122911599753</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>175</v>
@@ -8313,19 +8313,19 @@
         <v>88200</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76414</v>
+        <v>76693</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101067</v>
+        <v>100859</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2468925463566983</v>
+        <v>0.2468925463566984</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.213901294982991</v>
+        <v>0.2146817951632129</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2829110483328878</v>
+        <v>0.2823268518319227</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>226</v>
@@ -8334,19 +8334,19 @@
         <v>121282</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>107161</v>
+        <v>107565</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137263</v>
+        <v>136124</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.230415924993957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2035872456509057</v>
+        <v>0.2043553971818522</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2607769332397857</v>
+        <v>0.258613714344162</v>
       </c>
     </row>
     <row r="26">
@@ -8363,19 +8363,19 @@
         <v>105391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94877</v>
+        <v>95064</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114630</v>
+        <v>116674</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6231675778470883</v>
+        <v>0.6231675778470882</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.560998224385056</v>
+        <v>0.5621060991761219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6777992498118087</v>
+        <v>0.6898852576794872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>375</v>
@@ -8384,19 +8384,19 @@
         <v>201256</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>186412</v>
+        <v>188330</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>215811</v>
+        <v>215480</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5633630522328652</v>
+        <v>0.5633630522328654</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5218102215275368</v>
+        <v>0.527180039328443</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6041047738403126</v>
+        <v>0.6031786311864468</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>534</v>
@@ -8405,19 +8405,19 @@
         <v>306647</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>289236</v>
+        <v>288725</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>323897</v>
+        <v>324437</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5825783275674087</v>
+        <v>0.5825783275674086</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5494993115312721</v>
+        <v>0.5485301737413902</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6153493360881783</v>
+        <v>0.6163758261343355</v>
       </c>
     </row>
     <row r="27">
@@ -8434,19 +8434,19 @@
         <v>9085</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5064</v>
+        <v>4907</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14478</v>
+        <v>14673</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05371796948435244</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0299424149634934</v>
+        <v>0.02901691699966226</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08560705232974312</v>
+        <v>0.08675985811115709</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>30</v>
@@ -8455,19 +8455,19 @@
         <v>16332</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11511</v>
+        <v>10986</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23461</v>
+        <v>23145</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.04571577096654536</v>
+        <v>0.04571577096654537</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0322207882020415</v>
+        <v>0.03075173194792116</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06567140122014251</v>
+        <v>0.06478859836722661</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>44</v>
@@ -8476,19 +8476,19 @@
         <v>25416</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>18392</v>
+        <v>19081</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>34496</v>
+        <v>34181</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.04828688822267438</v>
+        <v>0.04828688822267437</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03494082235305049</v>
+        <v>0.03624994510954131</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06553657826236772</v>
+        <v>0.06493848511532305</v>
       </c>
     </row>
     <row r="28">
